--- a/template/Template-WT-2Visit.xlsx
+++ b/template/Template-WT-2Visit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MelinaStuff\BAM\dataImport\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MelinaStuff\BAM\WildTrax\WT-Integration\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D65EBCF-9E7B-48EE-8AD9-13955E0FA975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7421CC8-72E0-4A88-8D0D-E37835B269C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="18240" windowHeight="23640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template-WT-2Visit" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>location</t>
   </si>
@@ -41,27 +41,9 @@
     <t>visitDate</t>
   </si>
   <si>
-    <t>time_zone</t>
-  </si>
-  <si>
-    <t>data_origin</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
-    <t>missinginvisit</t>
-  </si>
-  <si>
-    <t>PKEY_DT</t>
-  </si>
-  <si>
-    <t>survey_year</t>
-  </si>
-  <si>
-    <t>survey_time</t>
-  </si>
-  <si>
     <t>QC-ATLAS:15PM01:1</t>
   </si>
   <si>
@@ -107,58 +89,10 @@
     <t>The date of the survey (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>Optional. Include if possible, use three letter codes, e.g. MDT, MST</t>
-  </si>
-  <si>
-    <t>Optional. Source of the data if differ from the organization e.g. Nature Counts, STRIX Consulting</t>
-  </si>
-  <si>
-    <t>Optional. Information missing from the visit</t>
-  </si>
-  <si>
-    <t>Optional. Concatenatation of  [location]:[visitDate]_[survey_time]:[observer]; separated by colons</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Optional. Year data was collected</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Optional. HH:MM, 24 hour format</t>
-  </si>
-  <si>
     <t>2010-06-08</t>
   </si>
   <si>
-    <t>QC-ATLAS</t>
-  </si>
-  <si>
-    <t>EST</t>
-  </si>
-  <si>
     <t>As needed. Any comments related to visits</t>
-  </si>
-  <si>
-    <t>05:16</t>
-  </si>
-  <si>
-    <t>07:16</t>
-  </si>
-  <si>
-    <t>07:46</t>
-  </si>
-  <si>
-    <t>08:16</t>
-  </si>
-  <si>
-    <t>08:46</t>
   </si>
   <si>
     <t>snowDepthMeters</t>
@@ -1051,17 +985,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7036"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,221 +1002,126 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="str">
-        <f>CONCATENATE(A2,":",B2,"_",Q2,":","QC-ATLAS_01")</f>
-        <v>QC-ATLAS:15PM01:1:2010-06-08_05:16:QC-ATLAS_01</v>
-      </c>
-      <c r="P2" s="3">
-        <v>2010</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O6" si="0">CONCATENATE(A3,":",B3,"_",Q3,":","QC-ATLAS_01")</f>
-        <v>QC-ATLAS:15PM01:2:2010-06-08_07:16:QC-ATLAS_01</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2010</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="0"/>
-        <v>QC-ATLAS:15PM01:3:2010-06-08_07:46:QC-ATLAS_01</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2010</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="0"/>
-        <v>QC-ATLAS:15PM01:4:2010-06-08_08:16:QC-ATLAS_01</v>
-      </c>
-      <c r="P5" s="3">
-        <v>2010</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="0"/>
-        <v>QC-ATLAS:15PM01:5:2010-06-08_08:46:QC-ATLAS_01</v>
-      </c>
-      <c r="P6" s="3">
-        <v>2010</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="5137" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R5137" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7036" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R7036" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1295,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,16 +1146,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1325,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,223 +1177,139 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
